--- a/RUDN/Importance/Varible_reg_in_Micronesia.xlsx
+++ b/RUDN/Importance/Varible_reg_in_Micronesia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
   </si>
@@ -22,70 +22,100 @@
     <t>Age dependency ratio (% of working-age population)</t>
   </si>
   <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>GDP growth (annual %)</t>
+  </si>
+  <si>
     <t>Age dependency ratio, old</t>
   </si>
   <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>Age population, age 02, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
+    <t>Sex ratio at birth (male births per female births)</t>
+  </si>
+  <si>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age population, age 03, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 02, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 11, female, interpolated</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, male (% of male population)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Age population, age 11, male, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 10, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 06, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 06, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 03, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 22, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 12, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Years</t>
-  </si>
-  <si>
-    <t>Age population, age 02, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 0, male, interpolated</t>
-  </si>
-  <si>
-    <t>Trade (% of GDP)</t>
-  </si>
-  <si>
-    <t>Age population, age 01, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 14, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 02, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 12, female, interpolated</t>
-  </si>
-  <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
-    <t>Age population, age 11, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 18, female, interpolated</t>
-  </si>
-  <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Age population, age 07, male, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 04, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 0, female, interpolated</t>
+    <t>Age population, age 01, male, interpolated</t>
   </si>
 </sst>
 </file>
@@ -443,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3965517282485962</v>
+        <v>0.2413793057203293</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -467,7 +497,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2413793057203293</v>
+        <v>0.1931034475564957</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -475,7 +505,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.04310344904661179</v>
+        <v>0.06896551698446274</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -483,7 +513,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.03448275849223137</v>
+        <v>0.06206896528601646</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -491,7 +521,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03448275849223137</v>
+        <v>0.05517241358757019</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -499,7 +529,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0258620698004961</v>
+        <v>0.05517241358757019</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -507,7 +537,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0258620698004961</v>
+        <v>0.03448275849223137</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -515,7 +545,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0258620698004961</v>
+        <v>0.0275862067937851</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -523,7 +553,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.01724137924611568</v>
+        <v>0.0275862067937851</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -531,7 +561,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.01724137924611568</v>
+        <v>0.02068965509533882</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -539,7 +569,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.01724137924611568</v>
+        <v>0.01379310339689255</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -547,7 +577,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.01724137924611568</v>
+        <v>0.01379310339689255</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -555,7 +585,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.008620689623057842</v>
+        <v>0.01379310339689255</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -563,7 +593,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.008620689623057842</v>
+        <v>0.01379310339689255</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -571,7 +601,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.008620689623057842</v>
+        <v>0.01379310339689255</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -579,7 +609,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.008620689623057842</v>
+        <v>0.01379310339689255</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -587,7 +617,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.008620689623057842</v>
+        <v>0.01379310339689255</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -595,7 +625,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.008620689623057842</v>
+        <v>0.006896551698446274</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -603,7 +633,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.008620689623057842</v>
+        <v>0.006896551698446274</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -611,7 +641,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.008620689623057842</v>
+        <v>0.006896551698446274</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -619,7 +649,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.008620689623057842</v>
+        <v>0.006896551698446274</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -627,7 +657,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.008620689623057842</v>
+        <v>0.006896551698446274</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -635,7 +665,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.008620689623057842</v>
+        <v>0.006896551698446274</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -643,7 +673,87 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.008620689623057842</v>
+        <v>0.006896551698446274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.006896551698446274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.006896551698446274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.006896551698446274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.006896551698446274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.006896551698446274</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.006896551698446274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0.006896551698446274</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0.006896551698446274</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0.006896551698446274</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0.006896551698446274</v>
       </c>
     </row>
   </sheetData>
